--- a/SI/SENSUM/SENSUM.xlsx
+++ b/SI/SENSUM/SENSUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\_mine_models\SI\SENSUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8F6175-0A5F-42BD-8723-33BC9A4EB823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D12A5-ECB5-439F-BDFB-2479AFFFAE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-120" windowWidth="18240" windowHeight="28320" xr2:uid="{1BB60DB1-1CAA-4DDF-938C-B982F7CD3E98}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15345" xr2:uid="{1BB60DB1-1CAA-4DDF-938C-B982F7CD3E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -806,7 +809,7 @@
   <dimension ref="A2:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
